--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/F2-F2rl2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/F2-F2rl2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,25 +525,25 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.5597896666666667</v>
+        <v>0.04339299999999999</v>
       </c>
       <c r="H2">
-        <v>1.679369</v>
+        <v>0.130179</v>
       </c>
       <c r="I2">
-        <v>0.4918833646099291</v>
+        <v>0.0698021577815419</v>
       </c>
       <c r="J2">
-        <v>0.491883364609929</v>
+        <v>0.0698021577815419</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.134173333333333</v>
+        <v>0.08786666666666666</v>
       </c>
       <c r="N2">
-        <v>3.40252</v>
+        <v>0.2636</v>
       </c>
       <c r="O2">
-        <v>0.7402917374137002</v>
+        <v>0.2208319231142997</v>
       </c>
       <c r="P2">
-        <v>0.7402917374137001</v>
+        <v>0.2208319231142997</v>
       </c>
       <c r="Q2">
-        <v>0.6348985122088889</v>
+        <v>0.003812798266666666</v>
       </c>
       <c r="R2">
-        <v>5.71408660988</v>
+        <v>0.0343151844</v>
       </c>
       <c r="S2">
-        <v>0.364137190591981</v>
+        <v>0.01541454474042568</v>
       </c>
       <c r="T2">
-        <v>0.3641371905919809</v>
+        <v>0.01541454474042568</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.04339299999999999</v>
+      </c>
+      <c r="H3">
+        <v>0.130179</v>
+      </c>
+      <c r="I3">
+        <v>0.0698021577815419</v>
+      </c>
+      <c r="J3">
+        <v>0.0698021577815419</v>
+      </c>
+      <c r="K3">
         <v>3</v>
       </c>
-      <c r="F3">
+      <c r="L3">
         <v>1</v>
       </c>
-      <c r="G3">
-        <v>0.5597896666666667</v>
-      </c>
-      <c r="H3">
-        <v>1.679369</v>
-      </c>
-      <c r="I3">
-        <v>0.4918833646099291</v>
-      </c>
-      <c r="J3">
-        <v>0.491883364609929</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M3">
-        <v>0.08786666666666666</v>
+        <v>0.3100226666666667</v>
       </c>
       <c r="N3">
-        <v>0.2636</v>
+        <v>0.9300680000000001</v>
       </c>
       <c r="O3">
-        <v>0.05735187507560614</v>
+        <v>0.7791680768857003</v>
       </c>
       <c r="P3">
-        <v>0.05735187507560614</v>
+        <v>0.7791680768857002</v>
       </c>
       <c r="Q3">
-        <v>0.04918685204444445</v>
+        <v>0.01345281357466667</v>
       </c>
       <c r="R3">
-        <v>0.4426816684</v>
+        <v>0.121075322172</v>
       </c>
       <c r="S3">
-        <v>0.02821043327887748</v>
+        <v>0.05438761304111623</v>
       </c>
       <c r="T3">
-        <v>0.02821043327887747</v>
+        <v>0.05438761304111622</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.4205383333333333</v>
+      </c>
+      <c r="H4">
+        <v>1.261615</v>
+      </c>
+      <c r="I4">
+        <v>0.6764796878879081</v>
+      </c>
+      <c r="J4">
+        <v>0.6764796878879081</v>
+      </c>
+      <c r="K4">
         <v>1</v>
       </c>
-      <c r="G4">
-        <v>0.5597896666666667</v>
-      </c>
-      <c r="H4">
-        <v>1.679369</v>
-      </c>
-      <c r="I4">
-        <v>0.4918833646099291</v>
-      </c>
-      <c r="J4">
-        <v>0.491883364609929</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.3100226666666667</v>
+        <v>0.08786666666666666</v>
       </c>
       <c r="N4">
-        <v>0.930068</v>
+        <v>0.2636</v>
       </c>
       <c r="O4">
-        <v>0.2023563875106937</v>
+        <v>0.2208319231142997</v>
       </c>
       <c r="P4">
-        <v>0.2023563875106937</v>
+        <v>0.2208319231142997</v>
       </c>
       <c r="Q4">
-        <v>0.1735474852324445</v>
+        <v>0.03695130155555555</v>
       </c>
       <c r="R4">
-        <v>1.561927367092</v>
+        <v>0.332561714</v>
       </c>
       <c r="S4">
-        <v>0.09953574073907062</v>
+        <v>0.149388310424048</v>
       </c>
       <c r="T4">
-        <v>0.09953574073907062</v>
+        <v>0.149388310424048</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,45 +726,45 @@
         <v>1.261615</v>
       </c>
       <c r="I5">
-        <v>0.3695241671379879</v>
+        <v>0.6764796878879081</v>
       </c>
       <c r="J5">
-        <v>0.3695241671379879</v>
+        <v>0.6764796878879081</v>
       </c>
       <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>1.134173333333333</v>
+        <v>0.3100226666666667</v>
       </c>
       <c r="N5">
-        <v>3.40252</v>
+        <v>0.9300680000000001</v>
       </c>
       <c r="O5">
-        <v>0.7402917374137002</v>
+        <v>0.7791680768857003</v>
       </c>
       <c r="P5">
-        <v>0.7402917374137001</v>
+        <v>0.7791680768857002</v>
       </c>
       <c r="Q5">
-        <v>0.4769633633111111</v>
+        <v>0.1303764155355556</v>
       </c>
       <c r="R5">
-        <v>4.292670269799999</v>
+        <v>1.17338773982</v>
       </c>
       <c r="S5">
-        <v>0.2735556877069316</v>
+        <v>0.5270913774638601</v>
       </c>
       <c r="T5">
-        <v>0.2735556877069316</v>
+        <v>0.5270913774638601</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.4205383333333333</v>
+        <v>0.1577256666666667</v>
       </c>
       <c r="H6">
-        <v>1.261615</v>
+        <v>0.473177</v>
       </c>
       <c r="I6">
-        <v>0.3695241671379879</v>
+        <v>0.2537181543305499</v>
       </c>
       <c r="J6">
-        <v>0.3695241671379879</v>
+        <v>0.2537181543305499</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,27 +806,27 @@
         <v>0.2636</v>
       </c>
       <c r="O6">
-        <v>0.05735187507560614</v>
+        <v>0.2208319231142997</v>
       </c>
       <c r="P6">
-        <v>0.05735187507560614</v>
+        <v>0.2208319231142997</v>
       </c>
       <c r="Q6">
-        <v>0.03695130155555555</v>
+        <v>0.01385882857777778</v>
       </c>
       <c r="R6">
-        <v>0.332561714</v>
+        <v>0.1247294572</v>
       </c>
       <c r="S6">
-        <v>0.02119290387111528</v>
+        <v>0.05602906794982605</v>
       </c>
       <c r="T6">
-        <v>0.02119290387111528</v>
+        <v>0.05602906794982605</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.4205383333333333</v>
+        <v>0.1577256666666667</v>
       </c>
       <c r="H7">
-        <v>1.261615</v>
+        <v>0.473177</v>
       </c>
       <c r="I7">
-        <v>0.3695241671379879</v>
+        <v>0.2537181543305499</v>
       </c>
       <c r="J7">
-        <v>0.3695241671379879</v>
+        <v>0.2537181543305499</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,211 +865,25 @@
         <v>0.3100226666666667</v>
       </c>
       <c r="N7">
-        <v>0.930068</v>
+        <v>0.9300680000000001</v>
       </c>
       <c r="O7">
-        <v>0.2023563875106937</v>
+        <v>0.7791680768857003</v>
       </c>
       <c r="P7">
-        <v>0.2023563875106937</v>
+        <v>0.7791680768857002</v>
       </c>
       <c r="Q7">
-        <v>0.1303764155355555</v>
+        <v>0.04889853178177779</v>
       </c>
       <c r="R7">
-        <v>1.17338773982</v>
+        <v>0.440086786036</v>
       </c>
       <c r="S7">
-        <v>0.07477557555994099</v>
+        <v>0.1976890863807239</v>
       </c>
       <c r="T7">
-        <v>0.07477557555994099</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.1577256666666667</v>
-      </c>
-      <c r="H8">
-        <v>0.473177</v>
-      </c>
-      <c r="I8">
-        <v>0.138592468252083</v>
-      </c>
-      <c r="J8">
-        <v>0.138592468252083</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>1.134173333333333</v>
-      </c>
-      <c r="N8">
-        <v>3.40252</v>
-      </c>
-      <c r="O8">
-        <v>0.7402917374137002</v>
-      </c>
-      <c r="P8">
-        <v>0.7402917374137001</v>
-      </c>
-      <c r="Q8">
-        <v>0.1788882451155556</v>
-      </c>
-      <c r="R8">
-        <v>1.60999420604</v>
-      </c>
-      <c r="S8">
-        <v>0.1025988591147876</v>
-      </c>
-      <c r="T8">
-        <v>0.1025988591147876</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.1577256666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.473177</v>
-      </c>
-      <c r="I9">
-        <v>0.138592468252083</v>
-      </c>
-      <c r="J9">
-        <v>0.138592468252083</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.08786666666666666</v>
-      </c>
-      <c r="N9">
-        <v>0.2636</v>
-      </c>
-      <c r="O9">
-        <v>0.05735187507560614</v>
-      </c>
-      <c r="P9">
-        <v>0.05735187507560614</v>
-      </c>
-      <c r="Q9">
-        <v>0.01385882857777778</v>
-      </c>
-      <c r="R9">
-        <v>0.1247294572</v>
-      </c>
-      <c r="S9">
-        <v>0.007948537925613374</v>
-      </c>
-      <c r="T9">
-        <v>0.007948537925613373</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.1577256666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.473177</v>
-      </c>
-      <c r="I10">
-        <v>0.138592468252083</v>
-      </c>
-      <c r="J10">
-        <v>0.138592468252083</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.3100226666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.930068</v>
-      </c>
-      <c r="O10">
-        <v>0.2023563875106937</v>
-      </c>
-      <c r="P10">
-        <v>0.2023563875106937</v>
-      </c>
-      <c r="Q10">
-        <v>0.04889853178177778</v>
-      </c>
-      <c r="R10">
-        <v>0.440086786036</v>
-      </c>
-      <c r="S10">
-        <v>0.02804507121168202</v>
-      </c>
-      <c r="T10">
-        <v>0.02804507121168201</v>
+        <v>0.1976890863807239</v>
       </c>
     </row>
   </sheetData>
